--- a/orcamentos/Prefeitura de Adamantina _adada.xlsx
+++ b/orcamentos/Prefeitura de Adamantina _adada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58958128-23AA-4BC4-911C-21655CC647A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D21CB6-9FEA-469A-AED9-6FEC3F6F3E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="resultado" sheetId="5" r:id="rId2"/>
     <sheet name="cenarios" sheetId="4" r:id="rId3"/>
-    <sheet name="www" sheetId="6" r:id="rId4"/>
+    <sheet name="yyy" sheetId="7" r:id="rId4"/>
+    <sheet name="www" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -121,6 +122,45 @@
   </si>
   <si>
     <t>Venda</t>
+  </si>
+  <si>
+    <t>GR01C</t>
+  </si>
+  <si>
+    <t>1803,49</t>
+  </si>
+  <si>
+    <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa. Preenchimento da figura com lâmpadas de LED.</t>
+  </si>
+  <si>
+    <t>GR01L</t>
+  </si>
+  <si>
+    <t>1573,13</t>
+  </si>
+  <si>
+    <t>Chuva de estrelas produzida em estrutura metálica e mangueira de LED</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>GR02L</t>
+  </si>
+  <si>
+    <t>1,25</t>
+  </si>
+  <si>
+    <t>1863,68</t>
+  </si>
+  <si>
+    <t>GR01SM</t>
+  </si>
+  <si>
+    <t>2107,04</t>
+  </si>
+  <si>
+    <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa. Aplicação de mangueiras de LED com movimentos e Strobos</t>
   </si>
 </sst>
 </file>
@@ -439,7 +479,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -532,6 +572,35 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -552,7 +621,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -580,14 +649,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B698659-20CB-4076-B560-D9C28ADE64DB}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75788471-A540-4DCE-ADB9-8ACE2093718B}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,6 +707,115 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B698659-20CB-4076-B560-D9C28ADE64DB}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2">
@@ -655,6 +841,70 @@
       </c>
       <c r="J2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
